--- a/02_data/rawdata/Rob_JMG_06.10.2024.xlsx
+++ b/02_data/rawdata/Rob_JMG_06.10.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k2141451_kcl_ac_uk/Documents/Documents/PhD/Projects/Umbrella_Meta-analysis_Archive/Risk of Bias Assesment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{1B035E8B-B899-4DC8-ABB4-605270D50184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED04F6B5-E850-4EF5-BFB5-A00921884CDE}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{1B035E8B-B899-4DC8-ABB4-605270D50184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCA49B1-A9E4-4699-84C5-3ACA5C92F25E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1331C3D-2D4A-46D7-8E3B-CEED6A0DB29B}"/>
+    <workbookView xWindow="2532" yWindow="2868" windowWidth="17280" windowHeight="8880" xr2:uid="{F1331C3D-2D4A-46D7-8E3B-CEED6A0DB29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Study type</t>
   </si>
@@ -93,6 +93,36 @@
   </si>
   <si>
     <t>Atkinson(2017)</t>
+  </si>
+  <si>
+    <t>Barrowclough(2015)</t>
+  </si>
+  <si>
+    <t>Barrowclough(2013)</t>
+  </si>
+  <si>
+    <t>Fond(2019)</t>
+  </si>
+  <si>
+    <t>Foti(2010)</t>
+  </si>
+  <si>
+    <t>Baeza(2009)</t>
+  </si>
+  <si>
+    <t>Buchy(2015)</t>
+  </si>
+  <si>
+    <t>Zammit(2011)</t>
+  </si>
+  <si>
+    <t>Arseneault(2002)</t>
+  </si>
+  <si>
+    <t>Dragt(2011)</t>
+  </si>
+  <si>
+    <t>Bechtold(2016)</t>
   </si>
 </sst>
 </file>
@@ -464,16 +494,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0A0DCB-DF3F-4447-B08D-6821D34F21A1}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="4.77734375" customWidth="1"/>
@@ -713,6 +743,356 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
